--- a/Documentation/Use Cases.xlsx
+++ b/Documentation/Use Cases.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17766"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\coffeebreak\coffeebreak\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Felix\coffeebreak\coffeebreak\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="55">
   <si>
     <t>Coffee Break</t>
   </si>
@@ -89,9 +89,6 @@
     <t>Shows the Navigation Drawer with different categories</t>
   </si>
   <si>
-    <t>Picks a preferred category to filter out unwanted tasks</t>
-  </si>
-  <si>
     <t>Sets header to picked category's name, shows all tasks with picked filter</t>
   </si>
   <si>
@@ -137,9 +134,6 @@
     <t>Takes user back to previous list of tasks, with the configured task updated in same place/order</t>
   </si>
   <si>
-    <t>Update/clean up list of done tasks</t>
-  </si>
-  <si>
     <t>Taps "More" button in top right corner</t>
   </si>
   <si>
@@ -150,6 +144,54 @@
   </si>
   <si>
     <t>Removes all checked off tasks withing the list</t>
+  </si>
+  <si>
+    <t>Picks a preferred time based category to show the tasks for that timespan</t>
+  </si>
+  <si>
+    <t>Picks a preferred  custom category to show the tasks with that label</t>
+  </si>
+  <si>
+    <t>Exception: Aborting creation of a Task</t>
+  </si>
+  <si>
+    <t>5.1</t>
+  </si>
+  <si>
+    <t>5.1.1</t>
+  </si>
+  <si>
+    <t>5.1.2</t>
+  </si>
+  <si>
+    <t>5.2</t>
+  </si>
+  <si>
+    <t>Begins to type in a name and then aborts by</t>
+  </si>
+  <si>
+    <t>Clicking the checkmark on the keyboard/outside the keyboard</t>
+  </si>
+  <si>
+    <t>Clicking the abort button</t>
+  </si>
+  <si>
+    <t>Aborts before clicking typing anything</t>
+  </si>
+  <si>
+    <t>6.1.1</t>
+  </si>
+  <si>
+    <t>6.1.2</t>
+  </si>
+  <si>
+    <t>Removes the task from the list</t>
+  </si>
+  <si>
+    <t>6.2</t>
+  </si>
+  <si>
+    <t>Update/clean up list from completed tasks</t>
   </si>
 </sst>
 </file>
@@ -233,7 +275,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -253,11 +295,11 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -274,11 +316,61 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="25">
+  <dxfs count="30">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -513,7 +605,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabell2" displayName="Tabell2" ref="D5:F13" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabell2" displayName="Tabell2" ref="D5:F13" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
+  <tableColumns count="3">
+    <tableColumn id="1" name="State" dataDxfId="27"/>
+    <tableColumn id="5" name="User" dataDxfId="26"/>
+    <tableColumn id="6" name="System" dataDxfId="25"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabell22" displayName="Tabell22" ref="H5:J7" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
   <tableColumns count="3">
     <tableColumn id="1" name="State" dataDxfId="22"/>
     <tableColumn id="5" name="User" dataDxfId="21"/>
@@ -523,8 +626,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabell22" displayName="Tabell22" ref="H5:J7" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabell24" displayName="Tabell24" ref="D17:F24" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
   <tableColumns count="3">
     <tableColumn id="1" name="State" dataDxfId="17"/>
     <tableColumn id="5" name="User" dataDxfId="16"/>
@@ -534,8 +637,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabell24" displayName="Tabell24" ref="D17:F23" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabell246" displayName="Tabell246" ref="D35:F40" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
   <tableColumns count="3">
     <tableColumn id="1" name="State" dataDxfId="12"/>
     <tableColumn id="5" name="User" dataDxfId="11"/>
@@ -545,8 +648,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabell246" displayName="Tabell246" ref="D28:F33" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Tabell2467" displayName="Tabell2467" ref="H35:J39" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
   <tableColumns count="3">
     <tableColumn id="1" name="State" dataDxfId="7"/>
     <tableColumn id="5" name="User" dataDxfId="6"/>
@@ -556,8 +659,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Tabell2467" displayName="Tabell2467" ref="H28:J32" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Tabell28" displayName="Tabell28" ref="H17:J30" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
   <tableColumns count="3">
     <tableColumn id="1" name="State" dataDxfId="2"/>
     <tableColumn id="5" name="User" dataDxfId="1"/>
@@ -865,10 +968,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:X126"/>
+  <dimension ref="A1:X128"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H47" sqref="H46:H47"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="M36" sqref="M36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -941,7 +1044,7 @@
       <c r="A3" s="2"/>
       <c r="B3" s="3"/>
       <c r="C3" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D3" s="11"/>
       <c r="E3" s="3"/>
@@ -1096,6 +1199,10 @@
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
+      <c r="W7" s="2"/>
+      <c r="X7" s="2"/>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
@@ -1122,16 +1229,20 @@
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2"/>
+      <c r="W8" s="2"/>
+      <c r="X8" s="2"/>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
-      <c r="D9" s="10" t="s">
-        <v>23</v>
+      <c r="D9" s="9" t="s">
+        <v>22</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="8"/>
@@ -1148,16 +1259,20 @@
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
+      <c r="U9" s="2"/>
+      <c r="V9" s="2"/>
+      <c r="W9" s="2"/>
+      <c r="X9" s="2"/>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
-      <c r="D10" s="10" t="s">
-        <v>24</v>
+      <c r="D10" s="9" t="s">
+        <v>23</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="8"/>
@@ -1174,17 +1289,21 @@
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
+      <c r="U10" s="2"/>
+      <c r="V10" s="2"/>
+      <c r="W10" s="2"/>
+      <c r="X10" s="2"/>
     </row>
     <row r="11" spans="1:24" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
-      <c r="D11" s="10">
+      <c r="D11" s="9">
         <v>4</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G11" s="8"/>
       <c r="H11" s="1"/>
@@ -1200,6 +1319,10 @@
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
+      <c r="U11" s="2"/>
+      <c r="V11" s="2"/>
+      <c r="W11" s="2"/>
+      <c r="X11" s="2"/>
     </row>
     <row r="12" spans="1:24" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
@@ -1323,7 +1446,9 @@
       <c r="E16" s="13"/>
       <c r="F16" s="13"/>
       <c r="G16" s="1"/>
-      <c r="H16" s="12"/>
+      <c r="H16" s="12" t="s">
+        <v>41</v>
+      </c>
       <c r="I16" s="13"/>
       <c r="J16" s="13"/>
       <c r="K16" s="1"/>
@@ -1355,9 +1480,15 @@
         <v>4</v>
       </c>
       <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
+      <c r="H17" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
@@ -1377,7 +1508,7 @@
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
-      <c r="D18" s="10" t="s">
+      <c r="D18" s="9" t="s">
         <v>15</v>
       </c>
       <c r="E18" s="7" t="s">
@@ -1385,9 +1516,13 @@
       </c>
       <c r="F18" s="7"/>
       <c r="G18" s="1"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
+      <c r="H18" s="7">
+        <v>1</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="J18" s="7"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
@@ -1407,7 +1542,7 @@
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
-      <c r="D19" s="10" t="s">
+      <c r="D19" s="9" t="s">
         <v>16</v>
       </c>
       <c r="E19" s="7" t="s">
@@ -1415,9 +1550,13 @@
       </c>
       <c r="F19" s="7"/>
       <c r="G19" s="1"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
+      <c r="H19" s="7">
+        <v>2</v>
+      </c>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
@@ -1445,9 +1584,13 @@
         <v>19</v>
       </c>
       <c r="G20" s="1"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
+      <c r="H20" s="7">
+        <v>3</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J20" s="7"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
@@ -1467,17 +1610,21 @@
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
-      <c r="D21" s="7">
-        <v>3</v>
+      <c r="D21" s="9" t="s">
+        <v>22</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="F21" s="7"/>
       <c r="G21" s="1"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
+      <c r="H21" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J21" s="7"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
@@ -1493,21 +1640,25 @@
       <c r="W21" s="1"/>
       <c r="X21" s="1"/>
     </row>
-    <row r="22" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:24" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
-      <c r="D22" s="7">
-        <v>4</v>
-      </c>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7" t="s">
-        <v>22</v>
-      </c>
+      <c r="D22" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F22" s="7"/>
       <c r="G22" s="1"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
+      <c r="H22" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="I22" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="J22" s="7"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
@@ -1523,21 +1674,25 @@
       <c r="W22" s="1"/>
       <c r="X22" s="1"/>
     </row>
-    <row r="23" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:24" ht="60" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E23" s="7"/>
       <c r="F23" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G23" s="1"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
+      <c r="H23" s="9">
+        <v>4</v>
+      </c>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7" t="s">
+        <v>26</v>
+      </c>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
@@ -1553,17 +1708,25 @@
       <c r="W23" s="1"/>
       <c r="X23" s="1"/>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:24" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
+      <c r="D24" s="7">
+        <v>5</v>
+      </c>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7" t="s">
+        <v>20</v>
+      </c>
       <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
+      <c r="H24" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="I24" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="J24" s="7"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
@@ -1579,7 +1742,7 @@
       <c r="W24" s="1"/>
       <c r="X24" s="1"/>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:24" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -1587,9 +1750,13 @@
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
+      <c r="H25" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="I25" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="J25" s="7"/>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
@@ -1605,19 +1772,21 @@
       <c r="W25" s="1"/>
       <c r="X25" s="1"/>
     </row>
-    <row r="26" spans="1:24" ht="19.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
-      <c r="C26" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="D26" s="11"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
+      <c r="H26" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="I26" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="J26" s="7"/>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
@@ -1633,21 +1802,21 @@
       <c r="W26" s="1"/>
       <c r="X26" s="1"/>
     </row>
-    <row r="27" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:24" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
       <c r="G27" s="1"/>
-      <c r="H27" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="I27" s="13"/>
-      <c r="J27" s="13"/>
+      <c r="H27" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="I27" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="J27" s="7"/>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
@@ -1663,28 +1832,20 @@
       <c r="W27" s="1"/>
       <c r="X27" s="1"/>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:24" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>4</v>
-      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
       <c r="G28" s="1"/>
-      <c r="H28" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="I28" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="J28" s="4" t="s">
-        <v>4</v>
+      <c r="H28" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7" t="s">
+        <v>10</v>
       </c>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
@@ -1704,22 +1865,18 @@
     <row r="29" spans="1:24" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="10">
-        <v>1</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F29" s="7"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
       <c r="G29" s="1"/>
-      <c r="H29" s="10">
-        <v>1</v>
-      </c>
-      <c r="I29" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="J29" s="7"/>
+      <c r="H29" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="I29" s="16"/>
+      <c r="J29" s="16" t="s">
+        <v>52</v>
+      </c>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
@@ -1735,24 +1892,20 @@
       <c r="W29" s="1"/>
       <c r="X29" s="1"/>
     </row>
-    <row r="30" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:24" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="10">
-        <v>2</v>
-      </c>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7" t="s">
-        <v>32</v>
-      </c>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
       <c r="G30" s="1"/>
-      <c r="H30" s="10">
-        <v>2</v>
+      <c r="H30" s="9" t="s">
+        <v>53</v>
       </c>
       <c r="I30" s="7"/>
       <c r="J30" s="7" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
@@ -1769,25 +1922,17 @@
       <c r="W30" s="1"/>
       <c r="X30" s="1"/>
     </row>
-    <row r="31" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="7">
-        <v>3</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F31" s="7"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
       <c r="G31" s="1"/>
-      <c r="H31" s="7">
-        <v>3</v>
-      </c>
-      <c r="I31" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="J31" s="7"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="6"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
@@ -1803,25 +1948,19 @@
       <c r="W31" s="1"/>
       <c r="X31" s="1"/>
     </row>
-    <row r="32" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:24" ht="19.5" x14ac:dyDescent="0.35">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="7">
-        <v>4</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="F32" s="7"/>
+      <c r="C32" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
       <c r="G32" s="1"/>
-      <c r="H32" s="7">
-        <v>4</v>
-      </c>
-      <c r="I32" s="7"/>
-      <c r="J32" s="7" t="s">
-        <v>40</v>
-      </c>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
@@ -1837,21 +1976,17 @@
       <c r="W32" s="1"/>
       <c r="X32" s="1"/>
     </row>
-    <row r="33" spans="1:24" ht="60" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:24" ht="19.5" x14ac:dyDescent="0.35">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
-      <c r="D33" s="7">
-        <v>5</v>
-      </c>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7" t="s">
-        <v>35</v>
-      </c>
+      <c r="D33" s="10"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
       <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
@@ -1867,17 +2002,21 @@
       <c r="W33" s="1"/>
       <c r="X33" s="1"/>
     </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
+      <c r="D34" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
       <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
+      <c r="H34" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="I34" s="13"/>
+      <c r="J34" s="13"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
@@ -1897,13 +2036,25 @@
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
+      <c r="D35" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
+      <c r="H35" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="I35" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J35" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
@@ -1919,17 +2070,25 @@
       <c r="W35" s="1"/>
       <c r="X35" s="1"/>
     </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:24" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
+      <c r="D36" s="9">
+        <v>1</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F36" s="7"/>
       <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
+      <c r="H36" s="9">
+        <v>1</v>
+      </c>
+      <c r="I36" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="J36" s="7"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
@@ -1945,17 +2104,25 @@
       <c r="W36" s="1"/>
       <c r="X36" s="1"/>
     </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:24" ht="45" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
+      <c r="D37" s="9">
+        <v>2</v>
+      </c>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
+      <c r="H37" s="9">
+        <v>2</v>
+      </c>
+      <c r="I37" s="7"/>
+      <c r="J37" s="7" t="s">
+        <v>36</v>
+      </c>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
@@ -1971,17 +2138,25 @@
       <c r="W37" s="1"/>
       <c r="X37" s="1"/>
     </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:24" ht="45" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
+      <c r="D38" s="7">
+        <v>3</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F38" s="7"/>
       <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
+      <c r="H38" s="7">
+        <v>3</v>
+      </c>
+      <c r="I38" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="J38" s="7"/>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
       <c r="M38" s="1"/>
@@ -1997,17 +2172,25 @@
       <c r="W38" s="1"/>
       <c r="X38" s="1"/>
     </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:24" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
+      <c r="D39" s="7">
+        <v>4</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F39" s="7"/>
       <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
-      <c r="J39" s="1"/>
+      <c r="H39" s="7">
+        <v>4</v>
+      </c>
+      <c r="I39" s="7"/>
+      <c r="J39" s="7" t="s">
+        <v>38</v>
+      </c>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
       <c r="M39" s="1"/>
@@ -2023,13 +2206,17 @@
       <c r="W39" s="1"/>
       <c r="X39" s="1"/>
     </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:24" ht="60" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
+      <c r="D40" s="7">
+        <v>5</v>
+      </c>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7" t="s">
+        <v>34</v>
+      </c>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
@@ -4137,6 +4324,9 @@
       <c r="E121" s="1"/>
       <c r="F121" s="1"/>
       <c r="G121" s="1"/>
+      <c r="H121" s="1"/>
+      <c r="I121" s="1"/>
+      <c r="J121" s="1"/>
       <c r="K121" s="1"/>
       <c r="L121" s="1"/>
       <c r="M121" s="1"/>
@@ -4160,6 +4350,9 @@
       <c r="E122" s="1"/>
       <c r="F122" s="1"/>
       <c r="G122" s="1"/>
+      <c r="H122" s="1"/>
+      <c r="I122" s="1"/>
+      <c r="J122" s="1"/>
       <c r="K122" s="1"/>
       <c r="L122" s="1"/>
       <c r="M122" s="1"/>
@@ -4183,6 +4376,9 @@
       <c r="E123" s="1"/>
       <c r="F123" s="1"/>
       <c r="G123" s="1"/>
+      <c r="H123" s="1"/>
+      <c r="I123" s="1"/>
+      <c r="J123" s="1"/>
       <c r="K123" s="1"/>
       <c r="L123" s="1"/>
       <c r="M123" s="1"/>
@@ -4206,6 +4402,9 @@
       <c r="E124" s="1"/>
       <c r="F124" s="1"/>
       <c r="G124" s="1"/>
+      <c r="H124" s="1"/>
+      <c r="I124" s="1"/>
+      <c r="J124" s="1"/>
       <c r="K124" s="1"/>
       <c r="L124" s="1"/>
       <c r="M124" s="1"/>
@@ -4229,6 +4428,9 @@
       <c r="E125" s="1"/>
       <c r="F125" s="1"/>
       <c r="G125" s="1"/>
+      <c r="H125" s="1"/>
+      <c r="I125" s="1"/>
+      <c r="J125" s="1"/>
       <c r="K125" s="1"/>
       <c r="L125" s="1"/>
       <c r="M125" s="1"/>
@@ -4245,16 +4447,46 @@
       <c r="X125" s="1"/>
     </row>
     <row r="126" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A126" s="1"/>
+      <c r="B126" s="1"/>
+      <c r="C126" s="1"/>
       <c r="D126" s="1"/>
       <c r="E126" s="1"/>
       <c r="F126" s="1"/>
+      <c r="G126" s="1"/>
+      <c r="H126" s="1"/>
+      <c r="I126" s="1"/>
+      <c r="J126" s="1"/>
+      <c r="K126" s="1"/>
+      <c r="L126" s="1"/>
+      <c r="M126" s="1"/>
+      <c r="N126" s="1"/>
+      <c r="O126" s="1"/>
+      <c r="P126" s="1"/>
+      <c r="Q126" s="1"/>
+      <c r="R126" s="1"/>
+      <c r="S126" s="1"/>
+      <c r="T126" s="1"/>
+      <c r="U126" s="1"/>
+      <c r="V126" s="1"/>
+      <c r="W126" s="1"/>
+      <c r="X126" s="1"/>
+    </row>
+    <row r="127" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="D127" s="1"/>
+      <c r="E127" s="1"/>
+      <c r="F127" s="1"/>
+    </row>
+    <row r="128" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="D128" s="1"/>
+      <c r="E128" s="1"/>
+      <c r="F128" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="C26:D26"/>
+  <mergeCells count="9">
     <mergeCell ref="C3:D3"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="H34:J34"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D4:F4"/>
@@ -4264,12 +4496,13 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-  <tableParts count="5">
+  <tableParts count="6">
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
     <tablePart r:id="rId5"/>
     <tablePart r:id="rId6"/>
+    <tablePart r:id="rId7"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Documentation/Use Cases.xlsx
+++ b/Documentation/Use Cases.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17766"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Felix\coffeebreak\coffeebreak\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\coffeebreak\coffeebreak\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -17,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Blad1!$D$5:$F$13</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="58">
   <si>
     <t>Coffee Break</t>
   </si>
@@ -192,6 +192,15 @@
   </si>
   <si>
     <t>Update/clean up list from completed tasks</t>
+  </si>
+  <si>
+    <t>5.1.3</t>
+  </si>
+  <si>
+    <t>Taping "Return"-button</t>
+  </si>
+  <si>
+    <t>6.1.3</t>
   </si>
 </sst>
 </file>
@@ -275,7 +284,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -301,6 +310,15 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -315,12 +333,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -638,7 +650,7 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabell246" displayName="Tabell246" ref="D35:F40" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabell246" displayName="Tabell246" ref="D37:F42" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
   <tableColumns count="3">
     <tableColumn id="1" name="State" dataDxfId="12"/>
     <tableColumn id="5" name="User" dataDxfId="11"/>
@@ -649,7 +661,7 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Tabell2467" displayName="Tabell2467" ref="H35:J39" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Tabell2467" displayName="Tabell2467" ref="H37:J41" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
   <tableColumns count="3">
     <tableColumn id="1" name="State" dataDxfId="7"/>
     <tableColumn id="5" name="User" dataDxfId="6"/>
@@ -660,7 +672,7 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Tabell28" displayName="Tabell28" ref="H17:J30" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Tabell28" displayName="Tabell28" ref="H17:J32" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
   <tableColumns count="3">
     <tableColumn id="1" name="State" dataDxfId="2"/>
     <tableColumn id="5" name="User" dataDxfId="1"/>
@@ -970,8 +982,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:X128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="M36" sqref="M36"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -985,12 +997,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="27" x14ac:dyDescent="0.35">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -1014,10 +1026,10 @@
     </row>
     <row r="2" spans="1:24" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="15"/>
+      <c r="C2" s="18"/>
       <c r="D2" s="2"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
@@ -1043,10 +1055,10 @@
     <row r="3" spans="1:24" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A3" s="2"/>
       <c r="B3" s="3"/>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="11"/>
+      <c r="D3" s="14"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="1"/>
@@ -1072,17 +1084,17 @@
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
       <c r="G4" s="1"/>
-      <c r="H4" s="12" t="s">
+      <c r="H4" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
@@ -1440,17 +1452,17 @@
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
-      <c r="D16" s="12" t="s">
+      <c r="D16" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
       <c r="G16" s="1"/>
-      <c r="H16" s="12" t="s">
+      <c r="H16" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
@@ -1802,7 +1814,7 @@
       <c r="W26" s="1"/>
       <c r="X26" s="1"/>
     </row>
-    <row r="27" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="2"/>
@@ -1811,10 +1823,10 @@
       <c r="F27" s="2"/>
       <c r="G27" s="1"/>
       <c r="H27" s="9" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="I27" s="7" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="J27" s="7"/>
       <c r="K27" s="1"/>
@@ -1832,7 +1844,7 @@
       <c r="W27" s="1"/>
       <c r="X27" s="1"/>
     </row>
-    <row r="28" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:24" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="2"/>
@@ -1841,12 +1853,12 @@
       <c r="F28" s="2"/>
       <c r="G28" s="1"/>
       <c r="H28" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="I28" s="7"/>
-      <c r="J28" s="7" t="s">
-        <v>10</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="I28" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="J28" s="7"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
@@ -1862,7 +1874,7 @@
       <c r="W28" s="1"/>
       <c r="X28" s="1"/>
     </row>
-    <row r="29" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:24" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="2"/>
@@ -1870,12 +1882,12 @@
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
       <c r="G29" s="1"/>
-      <c r="H29" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="I29" s="16"/>
-      <c r="J29" s="16" t="s">
-        <v>52</v>
+      <c r="H29" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7" t="s">
+        <v>10</v>
       </c>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
@@ -1900,11 +1912,11 @@
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
       <c r="G30" s="1"/>
-      <c r="H30" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="I30" s="7"/>
-      <c r="J30" s="7" t="s">
+      <c r="H30" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="I30" s="12"/>
+      <c r="J30" s="12" t="s">
         <v>52</v>
       </c>
       <c r="K30" s="1"/>
@@ -1922,7 +1934,7 @@
       <c r="W30" s="1"/>
       <c r="X30" s="1"/>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:24" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="2"/>
@@ -1930,9 +1942,13 @@
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
       <c r="G31" s="1"/>
-      <c r="H31" s="6"/>
-      <c r="I31" s="6"/>
-      <c r="J31" s="6"/>
+      <c r="H31" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="I31" s="12"/>
+      <c r="J31" s="12" t="s">
+        <v>52</v>
+      </c>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
@@ -1948,19 +1964,21 @@
       <c r="W31" s="1"/>
       <c r="X31" s="1"/>
     </row>
-    <row r="32" spans="1:24" ht="19.5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:24" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
       <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
+      <c r="H32" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="I32" s="7"/>
+      <c r="J32" s="7" t="s">
+        <v>52</v>
+      </c>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
@@ -1976,17 +1994,17 @@
       <c r="W32" s="1"/>
       <c r="X32" s="1"/>
     </row>
-    <row r="33" spans="1:24" ht="19.5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
       <c r="G33" s="1"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
-      <c r="J33" s="2"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="6"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
@@ -2002,21 +2020,19 @@
       <c r="W33" s="1"/>
       <c r="X33" s="1"/>
     </row>
-    <row r="34" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:24" ht="19.5" x14ac:dyDescent="0.35">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
+      <c r="C34" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
       <c r="G34" s="1"/>
-      <c r="H34" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="I34" s="13"/>
-      <c r="J34" s="13"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
@@ -2032,29 +2048,17 @@
       <c r="W34" s="1"/>
       <c r="X34" s="1"/>
     </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:24" ht="19.5" x14ac:dyDescent="0.35">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
-      <c r="D35" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F35" s="4" t="s">
-        <v>4</v>
-      </c>
+      <c r="D35" s="10"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
       <c r="G35" s="1"/>
-      <c r="H35" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="I35" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="J35" s="4" t="s">
-        <v>4</v>
-      </c>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
@@ -2070,25 +2074,21 @@
       <c r="W35" s="1"/>
       <c r="X35" s="1"/>
     </row>
-    <row r="36" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
-      <c r="D36" s="9">
-        <v>1</v>
-      </c>
-      <c r="E36" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F36" s="7"/>
+      <c r="D36" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
       <c r="G36" s="1"/>
-      <c r="H36" s="9">
-        <v>1</v>
-      </c>
-      <c r="I36" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="J36" s="7"/>
+      <c r="H36" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="I36" s="16"/>
+      <c r="J36" s="16"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
@@ -2104,24 +2104,28 @@
       <c r="W36" s="1"/>
       <c r="X36" s="1"/>
     </row>
-    <row r="37" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
-      <c r="D37" s="9">
+      <c r="D37" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7" t="s">
-        <v>31</v>
+      <c r="E37" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="G37" s="1"/>
-      <c r="H37" s="9">
+      <c r="H37" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="I37" s="7"/>
-      <c r="J37" s="7" t="s">
-        <v>36</v>
+      <c r="I37" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J37" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
@@ -2138,23 +2142,23 @@
       <c r="W37" s="1"/>
       <c r="X37" s="1"/>
     </row>
-    <row r="38" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:24" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
-      <c r="D38" s="7">
-        <v>3</v>
+      <c r="D38" s="9">
+        <v>1</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F38" s="7"/>
       <c r="G38" s="1"/>
-      <c r="H38" s="7">
-        <v>3</v>
+      <c r="H38" s="9">
+        <v>1</v>
       </c>
       <c r="I38" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J38" s="7"/>
       <c r="K38" s="1"/>
@@ -2172,24 +2176,24 @@
       <c r="W38" s="1"/>
       <c r="X38" s="1"/>
     </row>
-    <row r="39" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:24" ht="45" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
-      <c r="D39" s="7">
-        <v>4</v>
-      </c>
-      <c r="E39" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F39" s="7"/>
+      <c r="D39" s="9">
+        <v>2</v>
+      </c>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="G39" s="1"/>
-      <c r="H39" s="7">
-        <v>4</v>
+      <c r="H39" s="9">
+        <v>2</v>
       </c>
       <c r="I39" s="7"/>
       <c r="J39" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
@@ -2206,21 +2210,25 @@
       <c r="W39" s="1"/>
       <c r="X39" s="1"/>
     </row>
-    <row r="40" spans="1:24" ht="60" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:24" ht="45" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="7">
-        <v>5</v>
-      </c>
-      <c r="E40" s="7"/>
-      <c r="F40" s="7" t="s">
-        <v>34</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F40" s="7"/>
       <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
-      <c r="J40" s="1"/>
+      <c r="H40" s="7">
+        <v>3</v>
+      </c>
+      <c r="I40" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="J40" s="7"/>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
       <c r="M40" s="1"/>
@@ -2236,17 +2244,25 @@
       <c r="W40" s="1"/>
       <c r="X40" s="1"/>
     </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:24" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
+      <c r="D41" s="7">
+        <v>4</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F41" s="7"/>
       <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
-      <c r="J41" s="1"/>
+      <c r="H41" s="7">
+        <v>4</v>
+      </c>
+      <c r="I41" s="7"/>
+      <c r="J41" s="7" t="s">
+        <v>38</v>
+      </c>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
       <c r="M41" s="1"/>
@@ -2262,13 +2278,17 @@
       <c r="W41" s="1"/>
       <c r="X41" s="1"/>
     </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:24" ht="60" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
+      <c r="D42" s="7">
+        <v>5</v>
+      </c>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7" t="s">
+        <v>34</v>
+      </c>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
@@ -4476,17 +4496,22 @@
       <c r="D127" s="1"/>
       <c r="E127" s="1"/>
       <c r="F127" s="1"/>
+      <c r="H127" s="1"/>
+      <c r="I127" s="1"/>
+      <c r="J127" s="1"/>
     </row>
     <row r="128" spans="1:24" x14ac:dyDescent="0.25">
       <c r="D128" s="1"/>
       <c r="E128" s="1"/>
       <c r="F128" s="1"/>
+      <c r="H128" s="1"/>
+      <c r="I128" s="1"/>
+      <c r="J128" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="C3:D3"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="H34:J34"/>
+    <mergeCell ref="H36:J36"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D4:F4"/>

--- a/Documentation/Use Cases.xlsx
+++ b/Documentation/Use Cases.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Felix\coffeebreak\coffeebreak\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\coffeebreak\coffeebreak\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1222,8 +1222,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:Y138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F60" sqref="F60"/>
+    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2492,7 +2492,7 @@
       <c r="W41" s="7"/>
       <c r="X41" s="7"/>
     </row>
-    <row r="42" spans="1:24" ht="60" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:24" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="7"/>
       <c r="B42" s="7"/>
       <c r="C42" s="7"/>

--- a/Documentation/Use Cases.xlsx
+++ b/Documentation/Use Cases.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18067"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\coffeebreak\coffeebreak\Documentation\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -27,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="94">
   <si>
     <t>Coffee Break</t>
   </si>
@@ -297,18 +292,6 @@
   </si>
   <si>
     <t>Third Priority</t>
-  </si>
-  <si>
-    <t>Check statistics</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Opens navigation drawer </t>
-  </si>
-  <si>
-    <t>Taps on "Statistics/Achievements"</t>
-  </si>
-  <si>
-    <t>Shows Statistics tab</t>
   </si>
   <si>
     <t>Check achievements</t>
@@ -326,8 +309,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -418,7 +401,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -484,55 +467,17 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="60">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="55">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1031,29 +976,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabell2" displayName="Tabell2" ref="D5:F13" totalsRowShown="0" headerRowDxfId="59" dataDxfId="58">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabell2" displayName="Tabell2" ref="D5:F13" totalsRowShown="0" headerRowDxfId="54" dataDxfId="53">
   <tableColumns count="3">
-    <tableColumn id="1" name="State" dataDxfId="57"/>
-    <tableColumn id="5" name="User" dataDxfId="56"/>
-    <tableColumn id="6" name="System" dataDxfId="55"/>
+    <tableColumn id="1" name="State" dataDxfId="52"/>
+    <tableColumn id="5" name="User" dataDxfId="51"/>
+    <tableColumn id="6" name="System" dataDxfId="50"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Tabell2465911" displayName="Tabell2465911" ref="D103:F108" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
-  <tableColumns count="3">
-    <tableColumn id="1" name="State" dataDxfId="12"/>
-    <tableColumn id="5" name="User" dataDxfId="11"/>
-    <tableColumn id="6" name="System" dataDxfId="10"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Tabell24614" displayName="Tabell24614" ref="D114:F117" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Tabell2465911" displayName="Tabell2465911" ref="D103:F108" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
   <tableColumns count="3">
     <tableColumn id="1" name="State" dataDxfId="7"/>
     <tableColumn id="5" name="User" dataDxfId="6"/>
@@ -1063,7 +997,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Tabell2461415" displayName="Tabell2461415" ref="D121:F124" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
   <tableColumns count="3">
     <tableColumn id="1" name="State" dataDxfId="2"/>
@@ -1075,18 +1009,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabell22" displayName="Tabell22" ref="D28:F30" totalsRowShown="0" headerRowDxfId="54" dataDxfId="53">
-  <tableColumns count="3">
-    <tableColumn id="1" name="State" dataDxfId="52"/>
-    <tableColumn id="5" name="User" dataDxfId="51"/>
-    <tableColumn id="6" name="System" dataDxfId="50"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabell24" displayName="Tabell24" ref="D17:F24" totalsRowShown="0" headerRowDxfId="49" dataDxfId="48">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabell22" displayName="Tabell22" ref="D28:F30" totalsRowShown="0" headerRowDxfId="49" dataDxfId="48">
   <tableColumns count="3">
     <tableColumn id="1" name="State" dataDxfId="47"/>
     <tableColumn id="5" name="User" dataDxfId="46"/>
@@ -1096,8 +1019,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Tabell2467" displayName="Tabell2467" ref="D84:F89" totalsRowShown="0" headerRowDxfId="44" dataDxfId="43">
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabell24" displayName="Tabell24" ref="D17:F24" totalsRowShown="0" headerRowDxfId="44" dataDxfId="43">
   <tableColumns count="3">
     <tableColumn id="1" name="State" dataDxfId="42"/>
     <tableColumn id="5" name="User" dataDxfId="41"/>
@@ -1107,8 +1030,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Tabell24659" displayName="Tabell24659" ref="D93:F99" totalsRowShown="0" headerRowDxfId="39" dataDxfId="38">
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Tabell2467" displayName="Tabell2467" ref="D84:F89" totalsRowShown="0" headerRowDxfId="39" dataDxfId="38">
   <tableColumns count="3">
     <tableColumn id="1" name="State" dataDxfId="37"/>
     <tableColumn id="5" name="User" dataDxfId="36"/>
@@ -1118,8 +1041,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Tabell246510" displayName="Tabell246510" ref="D74:F80" totalsRowShown="0" headerRowDxfId="34" dataDxfId="33">
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Tabell24659" displayName="Tabell24659" ref="D93:F99" totalsRowShown="0" headerRowDxfId="34" dataDxfId="33">
   <tableColumns count="3">
     <tableColumn id="1" name="State" dataDxfId="32"/>
     <tableColumn id="5" name="User" dataDxfId="31"/>
@@ -1129,8 +1052,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabell2465" displayName="Tabell2465" ref="D64:F70" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Tabell246510" displayName="Tabell246510" ref="D74:F80" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
   <tableColumns count="3">
     <tableColumn id="1" name="State" dataDxfId="27"/>
     <tableColumn id="5" name="User" dataDxfId="26"/>
@@ -1140,8 +1063,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabell246" displayName="Tabell246" ref="D55:F60" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabell2465" displayName="Tabell2465" ref="D64:F70" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
   <tableColumns count="3">
     <tableColumn id="1" name="State" dataDxfId="22"/>
     <tableColumn id="5" name="User" dataDxfId="21"/>
@@ -1151,12 +1074,23 @@
 </table>
 </file>
 
-<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Tabell28" displayName="Tabell28" ref="D34:F49" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabell246" displayName="Tabell246" ref="D55:F60" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
   <tableColumns count="3">
     <tableColumn id="1" name="State" dataDxfId="17"/>
     <tableColumn id="5" name="User" dataDxfId="16"/>
     <tableColumn id="6" name="System" dataDxfId="15"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Tabell28" displayName="Tabell28" ref="D34:F49" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
+  <tableColumns count="3">
+    <tableColumn id="1" name="State" dataDxfId="12"/>
+    <tableColumn id="5" name="User" dataDxfId="11"/>
+    <tableColumn id="6" name="System" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1205,7 +1139,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1257,7 +1191,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1451,7 +1385,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1462,11 +1396,11 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:Y178"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A104" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F125" sqref="F125"/>
+    <sheetView tabSelected="1" topLeftCell="A103" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H116" sqref="H116"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="8"/>
     <col min="2" max="2" width="11" style="8" customWidth="1"/>
@@ -1479,7 +1413,7 @@
     <col min="11" max="24" width="9.140625" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="27" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:25" ht="27">
       <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
@@ -1508,7 +1442,7 @@
       <c r="X1" s="19"/>
       <c r="Y1" s="8"/>
     </row>
-    <row r="2" spans="1:25" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" ht="32.25" customHeight="1">
       <c r="B2" s="26" t="s">
         <v>1</v>
       </c>
@@ -1535,7 +1469,7 @@
       <c r="W2" s="19"/>
       <c r="X2" s="19"/>
     </row>
-    <row r="3" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:25" ht="23.25">
       <c r="B3" s="14"/>
       <c r="C3" s="22" t="s">
         <v>28</v>
@@ -1562,7 +1496,7 @@
       <c r="W3" s="19"/>
       <c r="X3" s="19"/>
     </row>
-    <row r="4" spans="1:25" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" ht="35.25" customHeight="1">
       <c r="A4" s="7"/>
       <c r="B4" s="7"/>
       <c r="C4" s="17"/>
@@ -1587,7 +1521,7 @@
       <c r="W4" s="19"/>
       <c r="X4" s="19"/>
     </row>
-    <row r="5" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" ht="15.75" customHeight="1">
       <c r="A5" s="7"/>
       <c r="D5" s="1" t="s">
         <v>2</v>
@@ -1609,7 +1543,7 @@
       <c r="S5" s="19"/>
       <c r="T5" s="19"/>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25">
       <c r="A6" s="7"/>
       <c r="D6" s="3">
         <v>1</v>
@@ -1630,7 +1564,7 @@
       <c r="S6" s="19"/>
       <c r="T6" s="19"/>
     </row>
-    <row r="7" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" ht="30">
       <c r="A7" s="7"/>
       <c r="D7" s="3">
         <v>2</v>
@@ -1651,7 +1585,7 @@
       <c r="S7" s="19"/>
       <c r="T7" s="19"/>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25">
       <c r="A8" s="7"/>
       <c r="D8" s="3">
         <v>3</v>
@@ -1675,7 +1609,7 @@
       <c r="S8" s="19"/>
       <c r="T8" s="19"/>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25">
       <c r="A9" s="7"/>
       <c r="D9" s="4" t="s">
         <v>22</v>
@@ -1699,7 +1633,7 @@
       <c r="S9" s="19"/>
       <c r="T9" s="19"/>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25">
       <c r="A10" s="7"/>
       <c r="D10" s="4" t="s">
         <v>23</v>
@@ -1723,7 +1657,7 @@
       <c r="S10" s="19"/>
       <c r="T10" s="19"/>
     </row>
-    <row r="11" spans="1:25" ht="60" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" ht="60">
       <c r="A11" s="7"/>
       <c r="D11" s="4">
         <v>4</v>
@@ -1747,7 +1681,7 @@
       <c r="S11" s="19"/>
       <c r="T11" s="19"/>
     </row>
-    <row r="12" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" ht="30">
       <c r="A12" s="7"/>
       <c r="B12" s="7"/>
       <c r="C12" s="17"/>
@@ -1777,7 +1711,7 @@
       <c r="W12" s="19"/>
       <c r="X12" s="19"/>
     </row>
-    <row r="13" spans="1:25" ht="45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" ht="45">
       <c r="A13" s="7"/>
       <c r="B13" s="7"/>
       <c r="C13" s="17"/>
@@ -1807,7 +1741,7 @@
       <c r="W13" s="19"/>
       <c r="X13" s="19"/>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25">
       <c r="A14" s="7"/>
       <c r="B14" s="7"/>
       <c r="C14" s="17"/>
@@ -1830,7 +1764,7 @@
       <c r="W14" s="19"/>
       <c r="X14" s="19"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25">
       <c r="A15" s="7"/>
       <c r="B15" s="7"/>
       <c r="C15" s="17"/>
@@ -1853,7 +1787,7 @@
       <c r="W15" s="19"/>
       <c r="X15" s="19"/>
     </row>
-    <row r="16" spans="1:25" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" ht="25.5">
       <c r="A16" s="7"/>
       <c r="B16" s="7"/>
       <c r="C16" s="17"/>
@@ -1878,7 +1812,7 @@
       <c r="W16" s="19"/>
       <c r="X16" s="19"/>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24">
       <c r="A17" s="7"/>
       <c r="B17" s="7"/>
       <c r="C17" s="17"/>
@@ -1907,7 +1841,7 @@
       <c r="W17" s="19"/>
       <c r="X17" s="19"/>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:24">
       <c r="A18" s="7"/>
       <c r="B18" s="7"/>
       <c r="C18" s="17"/>
@@ -1934,7 +1868,7 @@
       <c r="W18" s="19"/>
       <c r="X18" s="19"/>
     </row>
-    <row r="19" spans="1:24" ht="60" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:24" ht="60">
       <c r="A19" s="7"/>
       <c r="B19" s="7"/>
       <c r="C19" s="17"/>
@@ -1961,7 +1895,7 @@
       <c r="W19" s="19"/>
       <c r="X19" s="19"/>
     </row>
-    <row r="20" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:24" ht="45">
       <c r="A20" s="7"/>
       <c r="B20" s="7"/>
       <c r="C20" s="17"/>
@@ -1988,7 +1922,7 @@
       <c r="W20" s="19"/>
       <c r="X20" s="19"/>
     </row>
-    <row r="21" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:24" ht="45">
       <c r="A21" s="7"/>
       <c r="B21" s="7"/>
       <c r="C21" s="17"/>
@@ -2015,7 +1949,7 @@
       <c r="W21" s="19"/>
       <c r="X21" s="19"/>
     </row>
-    <row r="22" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:24" ht="45">
       <c r="A22" s="7"/>
       <c r="B22" s="7"/>
       <c r="C22" s="17"/>
@@ -2042,7 +1976,7 @@
       <c r="W22" s="19"/>
       <c r="X22" s="19"/>
     </row>
-    <row r="23" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:24" ht="30">
       <c r="A23" s="7"/>
       <c r="B23" s="7"/>
       <c r="C23" s="17"/>
@@ -2069,7 +2003,7 @@
       <c r="W23" s="19"/>
       <c r="X23" s="19"/>
     </row>
-    <row r="24" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:24" ht="45">
       <c r="A24" s="7"/>
       <c r="B24" s="7"/>
       <c r="C24" s="17"/>
@@ -2096,7 +2030,7 @@
       <c r="W24" s="19"/>
       <c r="X24" s="19"/>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:24">
       <c r="A25" s="7"/>
       <c r="B25" s="7"/>
       <c r="C25" s="17"/>
@@ -2119,7 +2053,7 @@
       <c r="W25" s="19"/>
       <c r="X25" s="19"/>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:24">
       <c r="A26" s="7"/>
       <c r="B26" s="7"/>
       <c r="C26" s="17"/>
@@ -2142,7 +2076,7 @@
       <c r="W26" s="19"/>
       <c r="X26" s="19"/>
     </row>
-    <row r="27" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:24" ht="25.5">
       <c r="A27" s="7"/>
       <c r="B27" s="7"/>
       <c r="D27" s="23" t="s">
@@ -2166,7 +2100,7 @@
       <c r="W27" s="19"/>
       <c r="X27" s="19"/>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:24">
       <c r="A28" s="7"/>
       <c r="B28" s="7"/>
       <c r="D28" s="1" t="s">
@@ -2194,7 +2128,7 @@
       <c r="W28" s="19"/>
       <c r="X28" s="19"/>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:24">
       <c r="A29" s="7"/>
       <c r="B29" s="7"/>
       <c r="D29" s="2">
@@ -2220,7 +2154,7 @@
       <c r="W29" s="19"/>
       <c r="X29" s="19"/>
     </row>
-    <row r="30" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:24" ht="30">
       <c r="A30" s="7"/>
       <c r="B30" s="7"/>
       <c r="D30" s="2">
@@ -2246,7 +2180,7 @@
       <c r="W30" s="19"/>
       <c r="X30" s="19"/>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:24">
       <c r="A31" s="7"/>
       <c r="B31" s="7"/>
       <c r="D31" s="8"/>
@@ -2268,7 +2202,7 @@
       <c r="W31" s="19"/>
       <c r="X31" s="19"/>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:24">
       <c r="A32" s="7"/>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -2289,7 +2223,7 @@
       <c r="W32" s="19"/>
       <c r="X32" s="19"/>
     </row>
-    <row r="33" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:24" ht="25.5">
       <c r="A33" s="7"/>
       <c r="D33" s="23" t="s">
         <v>40</v>
@@ -2315,7 +2249,7 @@
       <c r="W33" s="19"/>
       <c r="X33" s="19"/>
     </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:24">
       <c r="A34" s="7"/>
       <c r="D34" s="1" t="s">
         <v>2</v>
@@ -2341,7 +2275,7 @@
       <c r="W34" s="19"/>
       <c r="X34" s="19"/>
     </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:24">
       <c r="A35" s="7"/>
       <c r="D35" s="3">
         <v>1</v>
@@ -2365,7 +2299,7 @@
       <c r="W35" s="19"/>
       <c r="X35" s="19"/>
     </row>
-    <row r="36" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:24" ht="30">
       <c r="A36" s="7"/>
       <c r="D36" s="3">
         <v>2</v>
@@ -2389,7 +2323,7 @@
       <c r="W36" s="19"/>
       <c r="X36" s="19"/>
     </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:24">
       <c r="A37" s="7"/>
       <c r="D37" s="3">
         <v>3</v>
@@ -2413,7 +2347,7 @@
       <c r="W37" s="19"/>
       <c r="X37" s="19"/>
     </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:24">
       <c r="A38" s="7"/>
       <c r="D38" s="4" t="s">
         <v>22</v>
@@ -2437,7 +2371,7 @@
       <c r="W38" s="19"/>
       <c r="X38" s="19"/>
     </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:24">
       <c r="A39" s="7"/>
       <c r="D39" s="4" t="s">
         <v>23</v>
@@ -2461,7 +2395,7 @@
       <c r="W39" s="19"/>
       <c r="X39" s="19"/>
     </row>
-    <row r="40" spans="1:24" ht="60" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:24" ht="60">
       <c r="A40" s="7"/>
       <c r="D40" s="4">
         <v>4</v>
@@ -2485,7 +2419,7 @@
       <c r="W40" s="19"/>
       <c r="X40" s="19"/>
     </row>
-    <row r="41" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:24" ht="30">
       <c r="A41" s="7"/>
       <c r="D41" s="4" t="s">
         <v>41</v>
@@ -2509,7 +2443,7 @@
       <c r="W41" s="19"/>
       <c r="X41" s="19"/>
     </row>
-    <row r="42" spans="1:24" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:24" ht="81.75" customHeight="1">
       <c r="A42" s="7"/>
       <c r="D42" s="4" t="s">
         <v>42</v>
@@ -2533,7 +2467,7 @@
       <c r="W42" s="19"/>
       <c r="X42" s="19"/>
     </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:24">
       <c r="A43" s="7"/>
       <c r="D43" s="4" t="s">
         <v>43</v>
@@ -2557,7 +2491,7 @@
       <c r="W43" s="19"/>
       <c r="X43" s="19"/>
     </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:24">
       <c r="A44" s="7"/>
       <c r="D44" s="4" t="s">
         <v>54</v>
@@ -2581,7 +2515,7 @@
       <c r="W44" s="19"/>
       <c r="X44" s="19"/>
     </row>
-    <row r="45" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:24" ht="30">
       <c r="A45" s="7"/>
       <c r="D45" s="4" t="s">
         <v>44</v>
@@ -2605,7 +2539,7 @@
       <c r="W45" s="19"/>
       <c r="X45" s="19"/>
     </row>
-    <row r="46" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:24" ht="45">
       <c r="A46" s="7"/>
       <c r="D46" s="4" t="s">
         <v>49</v>
@@ -2629,7 +2563,7 @@
       <c r="W46" s="19"/>
       <c r="X46" s="19"/>
     </row>
-    <row r="47" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:24" ht="30">
       <c r="A47" s="7"/>
       <c r="D47" s="6" t="s">
         <v>50</v>
@@ -2653,7 +2587,7 @@
       <c r="W47" s="19"/>
       <c r="X47" s="19"/>
     </row>
-    <row r="48" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:24" ht="30">
       <c r="A48" s="7"/>
       <c r="D48" s="6" t="s">
         <v>56</v>
@@ -2677,7 +2611,7 @@
       <c r="W48" s="19"/>
       <c r="X48" s="19"/>
     </row>
-    <row r="49" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:24" ht="30">
       <c r="A49" s="7"/>
       <c r="D49" s="4" t="s">
         <v>52</v>
@@ -2701,7 +2635,7 @@
       <c r="W49" s="19"/>
       <c r="X49" s="19"/>
     </row>
-    <row r="50" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:24">
       <c r="A50" s="7"/>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -2721,7 +2655,7 @@
       <c r="W50" s="19"/>
       <c r="X50" s="19"/>
     </row>
-    <row r="51" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:24">
       <c r="A51" s="7"/>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -2741,7 +2675,7 @@
       <c r="W51" s="19"/>
       <c r="X51" s="19"/>
     </row>
-    <row r="52" spans="1:24" ht="19.5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:24" ht="19.5">
       <c r="A52" s="7"/>
       <c r="C52" s="22" t="s">
         <v>27</v>
@@ -2764,7 +2698,7 @@
       <c r="W52" s="19"/>
       <c r="X52" s="19"/>
     </row>
-    <row r="53" spans="1:24" ht="19.5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:24" ht="19.5">
       <c r="A53" s="7"/>
       <c r="C53" s="17"/>
       <c r="D53" s="11"/>
@@ -2785,7 +2719,7 @@
       <c r="W53" s="19"/>
       <c r="X53" s="19"/>
     </row>
-    <row r="54" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:24" ht="25.5">
       <c r="A54" s="7"/>
       <c r="C54" s="17"/>
       <c r="D54" s="12" t="s">
@@ -2808,7 +2742,7 @@
       <c r="W54" s="19"/>
       <c r="X54" s="19"/>
     </row>
-    <row r="55" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:24">
       <c r="A55" s="7"/>
       <c r="C55" s="17"/>
       <c r="D55" s="1" t="s">
@@ -2835,7 +2769,7 @@
       <c r="W55" s="19"/>
       <c r="X55" s="19"/>
     </row>
-    <row r="56" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:24" ht="30">
       <c r="A56" s="7"/>
       <c r="C56" s="17"/>
       <c r="D56" s="4">
@@ -2860,7 +2794,7 @@
       <c r="W56" s="19"/>
       <c r="X56" s="19"/>
     </row>
-    <row r="57" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:24" ht="45">
       <c r="A57" s="7"/>
       <c r="C57" s="17"/>
       <c r="D57" s="4">
@@ -2885,7 +2819,7 @@
       <c r="W57" s="19"/>
       <c r="X57" s="19"/>
     </row>
-    <row r="58" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:24" ht="45">
       <c r="A58" s="7"/>
       <c r="C58" s="17"/>
       <c r="D58" s="3">
@@ -2910,7 +2844,7 @@
       <c r="W58" s="19"/>
       <c r="X58" s="19"/>
     </row>
-    <row r="59" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:24">
       <c r="A59" s="7"/>
       <c r="C59" s="17"/>
       <c r="D59" s="3">
@@ -2935,7 +2869,7 @@
       <c r="W59" s="19"/>
       <c r="X59" s="19"/>
     </row>
-    <row r="60" spans="1:24" ht="60" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:24" ht="60">
       <c r="A60" s="7"/>
       <c r="C60" s="17"/>
       <c r="D60" s="3">
@@ -2960,7 +2894,7 @@
       <c r="W60" s="19"/>
       <c r="X60" s="19"/>
     </row>
-    <row r="61" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:24">
       <c r="A61" s="7"/>
       <c r="C61" s="17"/>
       <c r="D61" s="7"/>
@@ -2981,7 +2915,7 @@
       <c r="W61" s="19"/>
       <c r="X61" s="19"/>
     </row>
-    <row r="62" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:24">
       <c r="A62" s="7"/>
       <c r="C62" s="17"/>
       <c r="D62" s="7"/>
@@ -3002,7 +2936,7 @@
       <c r="W62" s="19"/>
       <c r="X62" s="19"/>
     </row>
-    <row r="63" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:24" ht="25.5">
       <c r="A63" s="7"/>
       <c r="B63" s="7"/>
       <c r="C63" s="17"/>
@@ -3030,7 +2964,7 @@
       <c r="W63" s="19"/>
       <c r="X63" s="19"/>
     </row>
-    <row r="64" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:24">
       <c r="A64" s="7"/>
       <c r="B64" s="7"/>
       <c r="C64" s="17"/>
@@ -3062,7 +2996,7 @@
       <c r="W64" s="19"/>
       <c r="X64" s="19"/>
     </row>
-    <row r="65" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:24" ht="30">
       <c r="A65" s="7"/>
       <c r="B65" s="7"/>
       <c r="C65" s="17"/>
@@ -3092,7 +3026,7 @@
       <c r="W65" s="19"/>
       <c r="X65" s="19"/>
     </row>
-    <row r="66" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:24">
       <c r="A66" s="7"/>
       <c r="B66" s="7"/>
       <c r="C66" s="17"/>
@@ -3122,7 +3056,7 @@
       <c r="W66" s="19"/>
       <c r="X66" s="19"/>
     </row>
-    <row r="67" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:24" ht="30">
       <c r="A67" s="7"/>
       <c r="B67" s="7"/>
       <c r="C67" s="17"/>
@@ -3152,7 +3086,7 @@
       <c r="W67" s="19"/>
       <c r="X67" s="19"/>
     </row>
-    <row r="68" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:24">
       <c r="A68" s="7"/>
       <c r="B68" s="7"/>
       <c r="C68" s="17"/>
@@ -3182,7 +3116,7 @@
       <c r="W68" s="19"/>
       <c r="X68" s="19"/>
     </row>
-    <row r="69" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:24" ht="30">
       <c r="A69" s="7"/>
       <c r="B69" s="7"/>
       <c r="C69" s="17"/>
@@ -3212,7 +3146,7 @@
       <c r="W69" s="19"/>
       <c r="X69" s="19"/>
     </row>
-    <row r="70" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:24" ht="30">
       <c r="A70" s="7"/>
       <c r="B70" s="7"/>
       <c r="C70" s="17"/>
@@ -3242,7 +3176,7 @@
       <c r="W70" s="19"/>
       <c r="X70" s="19"/>
     </row>
-    <row r="71" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:24">
       <c r="A71" s="7"/>
       <c r="B71" s="7"/>
       <c r="C71" s="17"/>
@@ -3268,7 +3202,7 @@
       <c r="W71" s="19"/>
       <c r="X71" s="19"/>
     </row>
-    <row r="72" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:24">
       <c r="A72" s="7"/>
       <c r="B72" s="7"/>
       <c r="C72" s="17"/>
@@ -3294,7 +3228,7 @@
       <c r="W72" s="19"/>
       <c r="X72" s="19"/>
     </row>
-    <row r="73" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:24" ht="25.5">
       <c r="A73" s="7"/>
       <c r="B73" s="7"/>
       <c r="C73" s="17"/>
@@ -3322,7 +3256,7 @@
       <c r="W73" s="19"/>
       <c r="X73" s="19"/>
     </row>
-    <row r="74" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:24">
       <c r="A74" s="7"/>
       <c r="B74" s="7"/>
       <c r="C74" s="17"/>
@@ -3354,7 +3288,7 @@
       <c r="W74" s="19"/>
       <c r="X74" s="19"/>
     </row>
-    <row r="75" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:24" ht="30">
       <c r="A75" s="7"/>
       <c r="B75" s="7"/>
       <c r="C75" s="17"/>
@@ -3384,7 +3318,7 @@
       <c r="W75" s="19"/>
       <c r="X75" s="19"/>
     </row>
-    <row r="76" spans="1:24" ht="60" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:24" ht="60">
       <c r="A76" s="7"/>
       <c r="B76" s="7"/>
       <c r="C76" s="17"/>
@@ -3414,7 +3348,7 @@
       <c r="W76" s="19"/>
       <c r="X76" s="19"/>
     </row>
-    <row r="77" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:24" ht="30">
       <c r="A77" s="7"/>
       <c r="B77" s="7"/>
       <c r="C77" s="17"/>
@@ -3444,7 +3378,7 @@
       <c r="W77" s="19"/>
       <c r="X77" s="19"/>
     </row>
-    <row r="78" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:24" ht="45">
       <c r="A78" s="7"/>
       <c r="B78" s="7"/>
       <c r="C78" s="17"/>
@@ -3474,7 +3408,7 @@
       <c r="W78" s="19"/>
       <c r="X78" s="19"/>
     </row>
-    <row r="79" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:24">
       <c r="A79" s="7"/>
       <c r="B79" s="7"/>
       <c r="C79" s="17"/>
@@ -3504,7 +3438,7 @@
       <c r="W79" s="19"/>
       <c r="X79" s="19"/>
     </row>
-    <row r="80" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:24" ht="45">
       <c r="A80" s="7"/>
       <c r="B80" s="7"/>
       <c r="C80" s="17"/>
@@ -3534,7 +3468,7 @@
       <c r="W80" s="19"/>
       <c r="X80" s="19"/>
     </row>
-    <row r="81" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:24">
       <c r="A81" s="7"/>
       <c r="B81" s="7"/>
       <c r="C81" s="17"/>
@@ -3560,7 +3494,7 @@
       <c r="W81" s="19"/>
       <c r="X81" s="19"/>
     </row>
-    <row r="82" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:24">
       <c r="A82" s="7"/>
       <c r="B82" s="7"/>
       <c r="C82" s="17"/>
@@ -3586,7 +3520,7 @@
       <c r="W82" s="19"/>
       <c r="X82" s="19"/>
     </row>
-    <row r="83" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:24" ht="25.5">
       <c r="A83" s="7"/>
       <c r="B83" s="7"/>
       <c r="C83" s="17"/>
@@ -3614,7 +3548,7 @@
       <c r="W83" s="19"/>
       <c r="X83" s="19"/>
     </row>
-    <row r="84" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:24">
       <c r="A84" s="7"/>
       <c r="B84" s="7"/>
       <c r="C84" s="17"/>
@@ -3646,7 +3580,7 @@
       <c r="W84" s="19"/>
       <c r="X84" s="19"/>
     </row>
-    <row r="85" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:24" ht="30">
       <c r="A85" s="7"/>
       <c r="B85" s="7"/>
       <c r="C85" s="17"/>
@@ -3676,7 +3610,7 @@
       <c r="W85" s="19"/>
       <c r="X85" s="19"/>
     </row>
-    <row r="86" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:24" ht="30">
       <c r="A86" s="7"/>
       <c r="B86" s="7"/>
       <c r="C86" s="17"/>
@@ -3706,7 +3640,7 @@
       <c r="W86" s="19"/>
       <c r="X86" s="19"/>
     </row>
-    <row r="87" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:24" ht="45">
       <c r="A87" s="7"/>
       <c r="B87" s="7"/>
       <c r="C87" s="17"/>
@@ -3736,7 +3670,7 @@
       <c r="W87" s="19"/>
       <c r="X87" s="19"/>
     </row>
-    <row r="88" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:24">
       <c r="A88" s="7"/>
       <c r="B88" s="7"/>
       <c r="C88" s="17"/>
@@ -3766,7 +3700,7 @@
       <c r="W88" s="19"/>
       <c r="X88" s="19"/>
     </row>
-    <row r="89" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:24" ht="30">
       <c r="A89" s="7"/>
       <c r="B89" s="7"/>
       <c r="C89" s="17"/>
@@ -3796,7 +3730,7 @@
       <c r="W89" s="19"/>
       <c r="X89" s="19"/>
     </row>
-    <row r="90" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:24">
       <c r="A90" s="7"/>
       <c r="B90" s="7"/>
       <c r="C90" s="17"/>
@@ -3819,7 +3753,7 @@
       <c r="W90" s="19"/>
       <c r="X90" s="19"/>
     </row>
-    <row r="91" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:24">
       <c r="A91" s="7"/>
       <c r="B91" s="7"/>
       <c r="C91" s="17"/>
@@ -3839,7 +3773,7 @@
       <c r="W91" s="19"/>
       <c r="X91" s="19"/>
     </row>
-    <row r="92" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:24" ht="25.5">
       <c r="A92" s="7"/>
       <c r="B92" s="7"/>
       <c r="C92" s="17"/>
@@ -3861,7 +3795,7 @@
       <c r="W92" s="19"/>
       <c r="X92" s="19"/>
     </row>
-    <row r="93" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:24">
       <c r="A93" s="7"/>
       <c r="B93" s="7"/>
       <c r="C93" s="17"/>
@@ -3887,7 +3821,7 @@
       <c r="W93" s="19"/>
       <c r="X93" s="19"/>
     </row>
-    <row r="94" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:24" ht="30">
       <c r="A94" s="7"/>
       <c r="B94" s="7"/>
       <c r="C94" s="17"/>
@@ -3911,7 +3845,7 @@
       <c r="W94" s="19"/>
       <c r="X94" s="19"/>
     </row>
-    <row r="95" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:24">
       <c r="A95" s="7"/>
       <c r="B95" s="7"/>
       <c r="C95" s="17"/>
@@ -3935,7 +3869,7 @@
       <c r="W95" s="19"/>
       <c r="X95" s="19"/>
     </row>
-    <row r="96" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:24" ht="30">
       <c r="A96" s="7"/>
       <c r="B96" s="7"/>
       <c r="C96" s="17"/>
@@ -3959,7 +3893,7 @@
       <c r="W96" s="19"/>
       <c r="X96" s="19"/>
     </row>
-    <row r="97" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:24">
       <c r="A97" s="7"/>
       <c r="B97" s="7"/>
       <c r="C97" s="17"/>
@@ -3983,7 +3917,7 @@
       <c r="W97" s="19"/>
       <c r="X97" s="19"/>
     </row>
-    <row r="98" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:24" ht="30">
       <c r="A98" s="7"/>
       <c r="B98" s="7"/>
       <c r="C98" s="17"/>
@@ -4007,7 +3941,7 @@
       <c r="W98" s="19"/>
       <c r="X98" s="19"/>
     </row>
-    <row r="99" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:24">
       <c r="A99" s="7"/>
       <c r="B99" s="7"/>
       <c r="C99" s="17"/>
@@ -4031,7 +3965,7 @@
       <c r="W99" s="19"/>
       <c r="X99" s="19"/>
     </row>
-    <row r="100" spans="1:24" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:24" s="8" customFormat="1">
       <c r="A100" s="7"/>
       <c r="B100" s="7"/>
       <c r="C100" s="17"/>
@@ -4055,7 +3989,7 @@
       <c r="W100" s="19"/>
       <c r="X100" s="19"/>
     </row>
-    <row r="101" spans="1:24" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:24" s="8" customFormat="1">
       <c r="A101" s="7"/>
       <c r="B101" s="7"/>
       <c r="C101" s="17"/>
@@ -4079,7 +4013,7 @@
       <c r="W101" s="19"/>
       <c r="X101" s="19"/>
     </row>
-    <row r="102" spans="1:24" s="8" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:24" s="8" customFormat="1" ht="25.5">
       <c r="A102" s="7"/>
       <c r="B102" s="7"/>
       <c r="C102" s="17"/>
@@ -4106,7 +4040,7 @@
       <c r="W102" s="19"/>
       <c r="X102" s="19"/>
     </row>
-    <row r="103" spans="1:24" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:24" s="8" customFormat="1">
       <c r="A103" s="7"/>
       <c r="B103" s="7"/>
       <c r="C103" s="17"/>
@@ -4137,7 +4071,7 @@
       <c r="W103" s="19"/>
       <c r="X103" s="19"/>
     </row>
-    <row r="104" spans="1:24" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:24" s="8" customFormat="1">
       <c r="A104" s="7"/>
       <c r="B104" s="7"/>
       <c r="C104" s="17"/>
@@ -4166,7 +4100,7 @@
       <c r="W104" s="19"/>
       <c r="X104" s="19"/>
     </row>
-    <row r="105" spans="1:24" s="8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:24" s="8" customFormat="1" ht="45">
       <c r="A105" s="7"/>
       <c r="B105" s="7"/>
       <c r="C105" s="17"/>
@@ -4195,7 +4129,7 @@
       <c r="W105" s="19"/>
       <c r="X105" s="19"/>
     </row>
-    <row r="106" spans="1:24" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:24" s="8" customFormat="1" ht="30">
       <c r="A106" s="7"/>
       <c r="B106" s="7"/>
       <c r="C106" s="17"/>
@@ -4224,7 +4158,7 @@
       <c r="W106" s="19"/>
       <c r="X106" s="19"/>
     </row>
-    <row r="107" spans="1:24" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:24" s="8" customFormat="1">
       <c r="A107" s="7"/>
       <c r="B107" s="7"/>
       <c r="C107" s="17"/>
@@ -4253,7 +4187,7 @@
       <c r="W107" s="19"/>
       <c r="X107" s="19"/>
     </row>
-    <row r="108" spans="1:24" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:24" s="8" customFormat="1" ht="30">
       <c r="A108" s="7"/>
       <c r="B108" s="7"/>
       <c r="C108" s="17"/>
@@ -4282,7 +4216,7 @@
       <c r="W108" s="19"/>
       <c r="X108" s="19"/>
     </row>
-    <row r="109" spans="1:24" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:24" s="8" customFormat="1">
       <c r="A109" s="7"/>
       <c r="B109" s="7"/>
       <c r="C109" s="17"/>
@@ -4306,7 +4240,7 @@
       <c r="W109" s="19"/>
       <c r="X109" s="19"/>
     </row>
-    <row r="110" spans="1:24" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:24" s="8" customFormat="1">
       <c r="A110" s="7"/>
       <c r="B110" s="7"/>
       <c r="C110" s="17"/>
@@ -4330,7 +4264,7 @@
       <c r="W110" s="19"/>
       <c r="X110" s="19"/>
     </row>
-    <row r="111" spans="1:24" s="8" customFormat="1" ht="19.5" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:24" s="8" customFormat="1" ht="19.5">
       <c r="A111" s="7"/>
       <c r="B111" s="7"/>
       <c r="C111" s="22" t="s">
@@ -4357,7 +4291,7 @@
       <c r="W111" s="19"/>
       <c r="X111" s="19"/>
     </row>
-    <row r="112" spans="1:24" s="8" customFormat="1" ht="19.5" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:24" s="8" customFormat="1" ht="19.5">
       <c r="A112" s="7"/>
       <c r="B112" s="7"/>
       <c r="C112" s="17"/>
@@ -4382,13 +4316,11 @@
       <c r="W112" s="19"/>
       <c r="X112" s="19"/>
     </row>
-    <row r="113" spans="1:24" s="8" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:24" s="8" customFormat="1" ht="25.5">
       <c r="A113" s="7"/>
       <c r="B113" s="7"/>
       <c r="C113" s="17"/>
-      <c r="D113" s="16" t="s">
-        <v>90</v>
-      </c>
+      <c r="D113" s="16"/>
       <c r="E113" s="16"/>
       <c r="F113" s="16"/>
       <c r="H113" s="20"/>
@@ -4409,19 +4341,13 @@
       <c r="W113" s="19"/>
       <c r="X113" s="19"/>
     </row>
-    <row r="114" spans="1:24" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:24" s="8" customFormat="1">
       <c r="A114" s="7"/>
       <c r="B114" s="7"/>
       <c r="C114" s="17"/>
-      <c r="D114" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E114" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F114" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="D114" s="7"/>
+      <c r="E114" s="7"/>
+      <c r="F114" s="7"/>
       <c r="H114" s="20"/>
       <c r="I114" s="20"/>
       <c r="J114" s="19"/>
@@ -4440,17 +4366,13 @@
       <c r="W114" s="19"/>
       <c r="X114" s="19"/>
     </row>
-    <row r="115" spans="1:24" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:24" s="8" customFormat="1">
       <c r="A115" s="7"/>
       <c r="B115" s="7"/>
       <c r="C115" s="17"/>
-      <c r="D115" s="4">
-        <v>1</v>
-      </c>
-      <c r="E115" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="F115" s="3"/>
+      <c r="D115" s="27"/>
+      <c r="E115" s="28"/>
+      <c r="F115" s="28"/>
       <c r="H115" s="20"/>
       <c r="I115" s="20"/>
       <c r="J115" s="19"/>
@@ -4469,17 +4391,13 @@
       <c r="W115" s="19"/>
       <c r="X115" s="19"/>
     </row>
-    <row r="116" spans="1:24" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:24" s="8" customFormat="1">
       <c r="A116" s="7"/>
       <c r="B116" s="7"/>
       <c r="C116" s="17"/>
-      <c r="D116" s="4">
-        <v>2</v>
-      </c>
-      <c r="E116" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="F116" s="3"/>
+      <c r="D116" s="27"/>
+      <c r="E116" s="28"/>
+      <c r="F116" s="28"/>
       <c r="H116" s="20"/>
       <c r="I116" s="20"/>
       <c r="J116" s="19"/>
@@ -4498,17 +4416,13 @@
       <c r="W116" s="19"/>
       <c r="X116" s="19"/>
     </row>
-    <row r="117" spans="1:24" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:24" s="8" customFormat="1">
       <c r="A117" s="7"/>
       <c r="B117" s="7"/>
       <c r="C117" s="17"/>
-      <c r="D117" s="3">
-        <v>3</v>
-      </c>
-      <c r="E117" s="3"/>
-      <c r="F117" s="3" t="s">
-        <v>93</v>
-      </c>
+      <c r="D117" s="28"/>
+      <c r="E117" s="28"/>
+      <c r="F117" s="28"/>
       <c r="H117" s="20"/>
       <c r="I117" s="20"/>
       <c r="J117" s="19"/>
@@ -4527,7 +4441,7 @@
       <c r="W117" s="19"/>
       <c r="X117" s="19"/>
     </row>
-    <row r="118" spans="1:24" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:24" s="8" customFormat="1">
       <c r="A118" s="7"/>
       <c r="B118" s="7"/>
       <c r="C118" s="17"/>
@@ -4552,7 +4466,7 @@
       <c r="W118" s="19"/>
       <c r="X118" s="19"/>
     </row>
-    <row r="119" spans="1:24" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:24" s="8" customFormat="1">
       <c r="A119" s="7"/>
       <c r="B119" s="7"/>
       <c r="C119" s="17"/>
@@ -4578,12 +4492,12 @@
       <c r="W119" s="19"/>
       <c r="X119" s="19"/>
     </row>
-    <row r="120" spans="1:24" s="8" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:24" s="8" customFormat="1" ht="25.5">
       <c r="A120" s="7"/>
       <c r="B120" s="7"/>
       <c r="C120" s="17"/>
       <c r="D120" s="16" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E120" s="16"/>
       <c r="F120" s="16"/>
@@ -4606,7 +4520,7 @@
       <c r="W120" s="19"/>
       <c r="X120" s="19"/>
     </row>
-    <row r="121" spans="1:24" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:24" s="8" customFormat="1">
       <c r="A121" s="7"/>
       <c r="B121" s="7"/>
       <c r="C121" s="17"/>
@@ -4638,7 +4552,7 @@
       <c r="W121" s="19"/>
       <c r="X121" s="19"/>
     </row>
-    <row r="122" spans="1:24" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:24" s="8" customFormat="1">
       <c r="A122" s="7"/>
       <c r="B122" s="7"/>
       <c r="C122" s="17"/>
@@ -4646,7 +4560,7 @@
         <v>1</v>
       </c>
       <c r="E122" s="3" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F122" s="3"/>
       <c r="G122" s="7"/>
@@ -4668,7 +4582,7 @@
       <c r="W122" s="19"/>
       <c r="X122" s="19"/>
     </row>
-    <row r="123" spans="1:24" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:24" s="8" customFormat="1">
       <c r="A123" s="7"/>
       <c r="B123" s="7"/>
       <c r="C123" s="17"/>
@@ -4676,7 +4590,7 @@
         <v>2</v>
       </c>
       <c r="E123" s="3" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F123" s="3"/>
       <c r="G123" s="7"/>
@@ -4698,7 +4612,7 @@
       <c r="W123" s="19"/>
       <c r="X123" s="19"/>
     </row>
-    <row r="124" spans="1:24" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:24" s="8" customFormat="1" ht="30">
       <c r="A124" s="7"/>
       <c r="B124" s="7"/>
       <c r="C124" s="17"/>
@@ -4707,7 +4621,7 @@
       </c>
       <c r="E124" s="3"/>
       <c r="F124" s="3" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="G124" s="7"/>
       <c r="H124" s="19"/>
@@ -4728,7 +4642,7 @@
       <c r="W124" s="19"/>
       <c r="X124" s="19"/>
     </row>
-    <row r="125" spans="1:24" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:24" s="8" customFormat="1">
       <c r="A125" s="7"/>
       <c r="B125" s="7"/>
       <c r="C125" s="17"/>
@@ -4754,7 +4668,7 @@
       <c r="W125" s="19"/>
       <c r="X125" s="19"/>
     </row>
-    <row r="126" spans="1:24" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:24" s="8" customFormat="1">
       <c r="A126" s="7"/>
       <c r="B126" s="7"/>
       <c r="C126" s="17"/>
@@ -4780,7 +4694,7 @@
       <c r="W126" s="19"/>
       <c r="X126" s="19"/>
     </row>
-    <row r="127" spans="1:24" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:24" s="8" customFormat="1">
       <c r="C127" s="18"/>
       <c r="H127" s="19"/>
       <c r="I127" s="19"/>
@@ -4800,7 +4714,7 @@
       <c r="W127" s="20"/>
       <c r="X127" s="20"/>
     </row>
-    <row r="128" spans="1:24" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:24" s="8" customFormat="1">
       <c r="C128" s="18"/>
       <c r="H128" s="19"/>
       <c r="I128" s="19"/>
@@ -4820,7 +4734,7 @@
       <c r="W128" s="20"/>
       <c r="X128" s="20"/>
     </row>
-    <row r="129" spans="3:24" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="3:24" s="8" customFormat="1">
       <c r="C129" s="18"/>
       <c r="H129" s="19"/>
       <c r="I129" s="19"/>
@@ -4840,7 +4754,7 @@
       <c r="W129" s="20"/>
       <c r="X129" s="20"/>
     </row>
-    <row r="130" spans="3:24" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="3:24" s="8" customFormat="1">
       <c r="C130" s="18"/>
       <c r="H130" s="20"/>
       <c r="I130" s="20"/>
@@ -4860,7 +4774,7 @@
       <c r="W130" s="20"/>
       <c r="X130" s="20"/>
     </row>
-    <row r="131" spans="3:24" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="3:24" s="8" customFormat="1">
       <c r="C131" s="18"/>
       <c r="H131" s="20"/>
       <c r="I131" s="20"/>
@@ -4880,7 +4794,7 @@
       <c r="W131" s="20"/>
       <c r="X131" s="20"/>
     </row>
-    <row r="132" spans="3:24" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="3:24" s="8" customFormat="1">
       <c r="C132" s="18"/>
       <c r="H132" s="20"/>
       <c r="I132" s="20"/>
@@ -4900,7 +4814,7 @@
       <c r="W132" s="20"/>
       <c r="X132" s="20"/>
     </row>
-    <row r="133" spans="3:24" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="3:24" s="8" customFormat="1">
       <c r="C133" s="18"/>
       <c r="H133" s="20"/>
       <c r="I133" s="20"/>
@@ -4920,7 +4834,7 @@
       <c r="W133" s="20"/>
       <c r="X133" s="20"/>
     </row>
-    <row r="134" spans="3:24" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="3:24" s="8" customFormat="1">
       <c r="C134" s="18"/>
       <c r="H134" s="20"/>
       <c r="I134" s="20"/>
@@ -4940,7 +4854,7 @@
       <c r="W134" s="20"/>
       <c r="X134" s="20"/>
     </row>
-    <row r="135" spans="3:24" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="3:24" s="8" customFormat="1">
       <c r="C135" s="18"/>
       <c r="H135" s="20"/>
       <c r="I135" s="20"/>
@@ -4960,7 +4874,7 @@
       <c r="W135" s="20"/>
       <c r="X135" s="20"/>
     </row>
-    <row r="136" spans="3:24" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="3:24" s="8" customFormat="1">
       <c r="C136" s="18"/>
       <c r="H136" s="20"/>
       <c r="I136" s="20"/>
@@ -4980,7 +4894,7 @@
       <c r="W136" s="20"/>
       <c r="X136" s="20"/>
     </row>
-    <row r="137" spans="3:24" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="3:24" s="8" customFormat="1">
       <c r="C137" s="18"/>
       <c r="H137" s="20"/>
       <c r="I137" s="20"/>
@@ -5000,7 +4914,7 @@
       <c r="W137" s="20"/>
       <c r="X137" s="20"/>
     </row>
-    <row r="138" spans="3:24" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="3:24" s="8" customFormat="1">
       <c r="C138" s="18"/>
       <c r="H138" s="20"/>
       <c r="I138" s="20"/>
@@ -5020,7 +4934,7 @@
       <c r="W138" s="20"/>
       <c r="X138" s="20"/>
     </row>
-    <row r="139" spans="3:24" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="3:24" s="8" customFormat="1">
       <c r="C139" s="18"/>
       <c r="H139" s="20"/>
       <c r="I139" s="20"/>
@@ -5040,7 +4954,7 @@
       <c r="W139" s="20"/>
       <c r="X139" s="20"/>
     </row>
-    <row r="140" spans="3:24" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="3:24" s="8" customFormat="1">
       <c r="C140" s="18"/>
       <c r="H140" s="20"/>
       <c r="I140" s="20"/>
@@ -5060,7 +4974,7 @@
       <c r="W140" s="20"/>
       <c r="X140" s="20"/>
     </row>
-    <row r="141" spans="3:24" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="3:24" s="8" customFormat="1">
       <c r="C141" s="18"/>
       <c r="H141" s="20"/>
       <c r="I141" s="20"/>
@@ -5080,7 +4994,7 @@
       <c r="W141" s="20"/>
       <c r="X141" s="20"/>
     </row>
-    <row r="142" spans="3:24" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="3:24" s="8" customFormat="1">
       <c r="C142" s="18"/>
       <c r="H142" s="20"/>
       <c r="I142" s="20"/>
@@ -5100,7 +5014,7 @@
       <c r="W142" s="20"/>
       <c r="X142" s="20"/>
     </row>
-    <row r="143" spans="3:24" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="3:24" s="8" customFormat="1">
       <c r="C143" s="18"/>
       <c r="H143" s="20"/>
       <c r="I143" s="20"/>
@@ -5120,7 +5034,7 @@
       <c r="W143" s="20"/>
       <c r="X143" s="20"/>
     </row>
-    <row r="144" spans="3:24" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="3:24" s="8" customFormat="1">
       <c r="C144" s="18"/>
       <c r="H144" s="20"/>
       <c r="I144" s="20"/>
@@ -5140,7 +5054,7 @@
       <c r="W144" s="20"/>
       <c r="X144" s="20"/>
     </row>
-    <row r="145" spans="3:24" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="3:24" s="8" customFormat="1">
       <c r="C145" s="18"/>
       <c r="H145" s="20"/>
       <c r="I145" s="20"/>
@@ -5160,7 +5074,7 @@
       <c r="W145" s="20"/>
       <c r="X145" s="20"/>
     </row>
-    <row r="146" spans="3:24" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="3:24" s="8" customFormat="1">
       <c r="C146" s="18"/>
       <c r="H146" s="20"/>
       <c r="I146" s="20"/>
@@ -5180,7 +5094,7 @@
       <c r="W146" s="20"/>
       <c r="X146" s="20"/>
     </row>
-    <row r="147" spans="3:24" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="3:24" s="8" customFormat="1">
       <c r="C147" s="18"/>
       <c r="H147" s="20"/>
       <c r="I147" s="20"/>
@@ -5200,7 +5114,7 @@
       <c r="W147" s="20"/>
       <c r="X147" s="20"/>
     </row>
-    <row r="148" spans="3:24" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="3:24" s="8" customFormat="1">
       <c r="C148" s="18"/>
       <c r="H148" s="20"/>
       <c r="I148" s="20"/>
@@ -5220,7 +5134,7 @@
       <c r="W148" s="20"/>
       <c r="X148" s="20"/>
     </row>
-    <row r="149" spans="3:24" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="3:24" s="8" customFormat="1">
       <c r="C149" s="18"/>
       <c r="H149" s="20"/>
       <c r="I149" s="20"/>
@@ -5240,7 +5154,7 @@
       <c r="W149" s="20"/>
       <c r="X149" s="20"/>
     </row>
-    <row r="150" spans="3:24" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="3:24" s="8" customFormat="1">
       <c r="C150" s="18"/>
       <c r="H150" s="20"/>
       <c r="I150" s="20"/>
@@ -5260,7 +5174,7 @@
       <c r="W150" s="20"/>
       <c r="X150" s="20"/>
     </row>
-    <row r="151" spans="3:24" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="3:24" s="8" customFormat="1">
       <c r="C151" s="18"/>
       <c r="H151" s="20"/>
       <c r="I151" s="20"/>
@@ -5280,7 +5194,7 @@
       <c r="W151" s="20"/>
       <c r="X151" s="20"/>
     </row>
-    <row r="152" spans="3:24" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="3:24" s="8" customFormat="1">
       <c r="C152" s="18"/>
       <c r="H152" s="20"/>
       <c r="I152" s="20"/>
@@ -5300,7 +5214,7 @@
       <c r="W152" s="20"/>
       <c r="X152" s="20"/>
     </row>
-    <row r="153" spans="3:24" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="3:24" s="8" customFormat="1">
       <c r="C153" s="18"/>
       <c r="H153" s="20"/>
       <c r="I153" s="20"/>
@@ -5320,7 +5234,7 @@
       <c r="W153" s="20"/>
       <c r="X153" s="20"/>
     </row>
-    <row r="154" spans="3:24" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="3:24" s="8" customFormat="1">
       <c r="C154" s="18"/>
       <c r="H154" s="20"/>
       <c r="I154" s="20"/>
@@ -5340,7 +5254,7 @@
       <c r="W154" s="20"/>
       <c r="X154" s="20"/>
     </row>
-    <row r="155" spans="3:24" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="3:24" s="8" customFormat="1">
       <c r="C155" s="18"/>
       <c r="H155" s="20"/>
       <c r="I155" s="20"/>
@@ -5360,7 +5274,7 @@
       <c r="W155" s="20"/>
       <c r="X155" s="20"/>
     </row>
-    <row r="156" spans="3:24" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="3:24" s="8" customFormat="1">
       <c r="C156" s="18"/>
       <c r="H156" s="20"/>
       <c r="I156" s="20"/>
@@ -5380,7 +5294,7 @@
       <c r="W156" s="20"/>
       <c r="X156" s="20"/>
     </row>
-    <row r="157" spans="3:24" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="3:24" s="8" customFormat="1">
       <c r="C157" s="18"/>
       <c r="H157" s="20"/>
       <c r="I157" s="20"/>
@@ -5400,7 +5314,7 @@
       <c r="W157" s="20"/>
       <c r="X157" s="20"/>
     </row>
-    <row r="158" spans="3:24" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="3:24" s="8" customFormat="1">
       <c r="C158" s="18"/>
       <c r="H158" s="20"/>
       <c r="I158" s="20"/>
@@ -5420,7 +5334,7 @@
       <c r="W158" s="20"/>
       <c r="X158" s="20"/>
     </row>
-    <row r="159" spans="3:24" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="3:24" s="8" customFormat="1">
       <c r="C159" s="18"/>
       <c r="H159" s="20"/>
       <c r="I159" s="20"/>
@@ -5440,7 +5354,7 @@
       <c r="W159" s="20"/>
       <c r="X159" s="20"/>
     </row>
-    <row r="160" spans="3:24" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="3:24" s="8" customFormat="1">
       <c r="C160" s="18"/>
       <c r="H160" s="20"/>
       <c r="I160" s="20"/>
@@ -5460,7 +5374,7 @@
       <c r="W160" s="20"/>
       <c r="X160" s="20"/>
     </row>
-    <row r="161" spans="3:24" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="3:24" s="8" customFormat="1">
       <c r="C161" s="18"/>
       <c r="H161" s="20"/>
       <c r="I161" s="20"/>
@@ -5480,7 +5394,7 @@
       <c r="W161" s="20"/>
       <c r="X161" s="20"/>
     </row>
-    <row r="162" spans="3:24" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="3:24" s="8" customFormat="1">
       <c r="C162" s="18"/>
       <c r="H162" s="20"/>
       <c r="I162" s="20"/>
@@ -5500,7 +5414,7 @@
       <c r="W162" s="20"/>
       <c r="X162" s="20"/>
     </row>
-    <row r="163" spans="3:24" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="3:24" s="8" customFormat="1">
       <c r="C163" s="18"/>
       <c r="H163" s="20"/>
       <c r="I163" s="20"/>
@@ -5520,7 +5434,7 @@
       <c r="W163" s="20"/>
       <c r="X163" s="20"/>
     </row>
-    <row r="164" spans="3:24" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="3:24" s="8" customFormat="1">
       <c r="C164" s="18"/>
       <c r="H164" s="20"/>
       <c r="I164" s="20"/>
@@ -5540,7 +5454,7 @@
       <c r="W164" s="20"/>
       <c r="X164" s="20"/>
     </row>
-    <row r="165" spans="3:24" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="3:24" s="8" customFormat="1">
       <c r="C165" s="18"/>
       <c r="H165" s="20"/>
       <c r="I165" s="20"/>
@@ -5560,7 +5474,7 @@
       <c r="W165" s="20"/>
       <c r="X165" s="20"/>
     </row>
-    <row r="166" spans="3:24" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="3:24" s="8" customFormat="1">
       <c r="C166" s="18"/>
       <c r="H166" s="20"/>
       <c r="I166" s="20"/>
@@ -5580,7 +5494,7 @@
       <c r="W166" s="20"/>
       <c r="X166" s="20"/>
     </row>
-    <row r="167" spans="3:24" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="3:24" s="8" customFormat="1">
       <c r="C167" s="18"/>
       <c r="H167" s="20"/>
       <c r="I167" s="20"/>
@@ -5600,7 +5514,7 @@
       <c r="W167" s="20"/>
       <c r="X167" s="20"/>
     </row>
-    <row r="168" spans="3:24" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="3:24" s="8" customFormat="1">
       <c r="C168" s="18"/>
       <c r="H168" s="20"/>
       <c r="I168" s="20"/>
@@ -5620,7 +5534,7 @@
       <c r="W168" s="20"/>
       <c r="X168" s="20"/>
     </row>
-    <row r="169" spans="3:24" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="3:24" s="8" customFormat="1">
       <c r="C169" s="18"/>
       <c r="H169" s="20"/>
       <c r="I169" s="20"/>
@@ -5640,7 +5554,7 @@
       <c r="W169" s="20"/>
       <c r="X169" s="20"/>
     </row>
-    <row r="170" spans="3:24" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="3:24" s="8" customFormat="1">
       <c r="C170" s="18"/>
       <c r="H170" s="20"/>
       <c r="I170" s="20"/>
@@ -5660,7 +5574,7 @@
       <c r="W170" s="20"/>
       <c r="X170" s="20"/>
     </row>
-    <row r="171" spans="3:24" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="3:24" s="8" customFormat="1">
       <c r="C171" s="18"/>
       <c r="H171" s="20"/>
       <c r="I171" s="20"/>
@@ -5680,7 +5594,7 @@
       <c r="W171" s="20"/>
       <c r="X171" s="20"/>
     </row>
-    <row r="172" spans="3:24" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="3:24" s="8" customFormat="1">
       <c r="C172" s="18"/>
       <c r="H172" s="20"/>
       <c r="I172" s="20"/>
@@ -5700,7 +5614,7 @@
       <c r="W172" s="20"/>
       <c r="X172" s="20"/>
     </row>
-    <row r="173" spans="3:24" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="3:24" s="8" customFormat="1">
       <c r="C173" s="18"/>
       <c r="H173" s="20"/>
       <c r="I173" s="20"/>
@@ -5720,7 +5634,7 @@
       <c r="W173" s="20"/>
       <c r="X173" s="20"/>
     </row>
-    <row r="174" spans="3:24" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="3:24" s="8" customFormat="1">
       <c r="C174" s="18"/>
       <c r="H174" s="20"/>
       <c r="I174" s="20"/>
@@ -5740,7 +5654,7 @@
       <c r="W174" s="20"/>
       <c r="X174" s="20"/>
     </row>
-    <row r="175" spans="3:24" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="3:24" s="8" customFormat="1">
       <c r="C175" s="18"/>
       <c r="H175" s="20"/>
       <c r="I175" s="20"/>
@@ -5760,7 +5674,7 @@
       <c r="W175" s="20"/>
       <c r="X175" s="20"/>
     </row>
-    <row r="176" spans="3:24" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="3:24" s="8" customFormat="1">
       <c r="C176" s="18"/>
       <c r="D176"/>
       <c r="E176"/>
@@ -5783,7 +5697,7 @@
       <c r="W176" s="20"/>
       <c r="X176" s="20"/>
     </row>
-    <row r="177" spans="3:24" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="3:24" s="8" customFormat="1">
       <c r="C177" s="18"/>
       <c r="D177"/>
       <c r="E177"/>
@@ -5806,7 +5720,7 @@
       <c r="W177" s="20"/>
       <c r="X177" s="20"/>
     </row>
-    <row r="178" spans="3:24" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="3:24" s="8" customFormat="1">
       <c r="C178" s="18"/>
       <c r="D178"/>
       <c r="E178"/>
@@ -5844,7 +5758,7 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-  <tableParts count="12">
+  <tableParts count="11">
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
@@ -5856,7 +5770,6 @@
     <tablePart r:id="rId10"/>
     <tablePart r:id="rId11"/>
     <tablePart r:id="rId12"/>
-    <tablePart r:id="rId13"/>
   </tableParts>
 </worksheet>
 </file>